--- a/userstoriesTatoo.xlsx
+++ b/userstoriesTatoo.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t xml:space="preserve">Epic</t>
   </si>
@@ -49,7 +51,7 @@
     <t xml:space="preserve">Home</t>
   </si>
   <si>
-    <t xml:space="preserve">menu de navegacion</t>
+    <t xml:space="preserve">Menu de navegacion</t>
   </si>
   <si>
     <t xml:space="preserve">Menu principal</t>
@@ -61,154 +63,211 @@
     <t xml:space="preserve">ver el menu principal de la home</t>
   </si>
   <si>
-    <t xml:space="preserve">clickear en el link que me interesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver una barra de menú fija que al clickear me remita a la ubicación deseada y si tiene submenú me lo muestre </t>
+    <t xml:space="preserve">clickear en el link que me interesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver una barra de menú fija que al clickear me remita a la ubicación deseada, en un telefono que despliegue el menu principal la clicklear en él.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seccion artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una seccion con las caras de los artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver los artistas del estudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizacion del logo del estudio y  artistas</t>
   </si>
   <si>
     <t xml:space="preserve">Estudio</t>
   </si>
   <si>
-    <t xml:space="preserve">ir a la seccion de Estudio dentro de la home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver una barra de menú que al clickear me remita a la ubicación deseada y si tiene submenú me lo muestre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver el submenu que contiene los artistas del estudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hacer click en el artista  deseado y poder direccionarme a la pagina del artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver agrupado dentro del menú temporada las opciones de las categorías</t>
+    <t xml:space="preserve">Seccion Estudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una seccion  con fotos del Estudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocer el Estudio por dentro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver una pequeña descripcion del estudio y algunas imagenes de ellas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seccion Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una seccion de la pagina donde se encuentra Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceder a un formulario, un calendario y un mapa de ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver un formulario para hcer consultas (nombre, telefono/mail, consulta) y un calendario  para hacer citas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junto a esto un mapa con la ubicación, dias y horarios de atencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seccion Footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una seccion con los enlaces a las redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clickear y abrir en una nueva pestañala red social elegida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver en parte inferior de la pagina los enlaces a las redes sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagina FAQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagina faqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una pagina son preguntas y respuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrar las preguntas antes de realizar una consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizacion de preguntas , respuestas  referidas tanto al funcionammiento del estudio y a realizarse un tatto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con un menu de navegacion y Footer correspondiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artista X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagina Artista X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una pagina del artista seleccionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver trabajos del artista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver una bio del artista y un slider dinámico con las imagenes ,con un menu de navegacion y Footer correspondiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X =nombre del artista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualización de calendario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un calendario  junto al formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccionar una fecha, poder ver los eventos relacionados a ella y elegir una fecha para una cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visualizar un almanaque que me permita buscar una fecha deseada, clickear en ella y que despliegue los eventos asociados, un mensaje si no hay eventos y elegir un turno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un formulario para completar con mi datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enviar consultas o pedir un turno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar un formulario con los campos: nombre, telefono/mail y comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora estimada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu navegacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animacion js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     fotos artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      quienes somos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seccion contacto: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      formulario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       calendario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Mapa ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      footer</t>
   </si>
   <si>
     <t xml:space="preserve">Faqs</t>
   </si>
   <si>
-    <t xml:space="preserve">Ir a la seccion de preguntas y respuestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hacer click y abrir en una pestaña la pagina de FAQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con un click abrir una nueva pestaña donde cargue la paguina de faqs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posicionarme en la seccion de la pagina donde se encuentra Contactos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acceder a un formulario, un calendario y un mapa de ubicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver un formulario para hcer consultas (nombre, telefono/mail, consulta) y un calendario  para hacer citas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver las redes sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con un clic redireccionarme en una nueva pestaña a la red social elegida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pagina faqs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizacion de preguntas y respuestas referidas al proceso de hacerse un tatto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artista X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slider de trabajos del artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver una  galeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver las imagenes de los tattos  de forma dinámica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver el slider dinámico con las imagenes y  poder deslizarlas con un clic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home/Estudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slider del estudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver un  y fotos del estudio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver una pequeña descripcion del estudio y algunas imagenes de ellas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home/Artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enlace de artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver mas informacion del artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con un click redireccionarme a la pagina del artista deseado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">las imagenes de los tattos  de forma dinámica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calendario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualización de calendario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visualizar un calendario dentro de la home en la seccion contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccionar una fecha, poder ver los eventos relacionados a ella y elegir una fecha para una cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visualizar un almanaque que me permita buscar una fecha deseada, clickear en ella y que despliegue los eventos asociados o un mensaje si no hay eventos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asociar evento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asociar  un evento al calendario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">poder asociar el evento al calendario y que se refleje en el calendario del frontend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contar con un flag que asocie el evento al calendario y que se refleje en el calendario de forma que el user web pueda clicjear en la fecha y ver el evento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user mobile</t>
+    <t xml:space="preserve">      menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      faqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     footer</t>
   </si>
 </sst>
 </file>
@@ -218,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -329,22 +388,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -354,8 +401,29 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +484,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -514,7 +588,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,36 +613,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -649,7 +711,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF4C4C4C"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -664,15 +726,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.01"/>
@@ -714,7 +776,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -738,368 +800,262 @@
         <v>14</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="61.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="61.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="90.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="60.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="90.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1109,4 +1065,230 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/userstoriesTatoo.xlsx
+++ b/userstoriesTatoo.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t xml:space="preserve">Epic</t>
   </si>
@@ -46,10 +48,13 @@
     <t xml:space="preserve">Notas</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprint</t>
+  </si>
+  <si>
     <t xml:space="preserve">Home</t>
   </si>
   <si>
-    <t xml:space="preserve">menu de navegacion</t>
+    <t xml:space="preserve">Menu de navegacion</t>
   </si>
   <si>
     <t xml:space="preserve">Menu principal</t>
@@ -61,154 +66,226 @@
     <t xml:space="preserve">ver el menu principal de la home</t>
   </si>
   <si>
-    <t xml:space="preserve">clickear en el link que me interesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver una barra de menú fija que al clickear me remita a la ubicación deseada y si tiene submenú me lo muestre </t>
+    <t xml:space="preserve">clickear en el link que me interesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver una barra de menú fija que al clickear me remita a la ubicación deseada. En un telefono un menu hamburguesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seccion artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una seccion con las caras de los artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver los artistas del estudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizacion del logo del estudio y  artistas</t>
   </si>
   <si>
     <t xml:space="preserve">Estudio</t>
   </si>
   <si>
-    <t xml:space="preserve">ir a la seccion de Estudio dentro de la home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver una barra de menú que al clickear me remita a la ubicación deseada y si tiene submenú me lo muestre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver el submenu que contiene los artistas del estudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hacer click en el artista  deseado y poder direccionarme a la pagina del artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver agrupado dentro del menú temporada las opciones de las categorías</t>
+    <t xml:space="preserve">Seccion Estudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una seccion  con fotos del Estudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocer el Estudio por dentro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver una pequeña descripcion del estudio y algunas imagenes de ellas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seccion Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una seccion de la pagina donde se encuentra Contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceder a un formulario, un calendario y un mapa de ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver un formulario para hcer consultas (nombre, telefono/mail, consulta) y un calendario  para hacer citas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seccion Footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una seccion con los enlaces a las redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clickear y abrir en una nueva pestañala red social elegida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver en parte inferior de la pagina los enlaces a las redes sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagina FAQS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagina faqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una pagina son preguntas y respuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrar las preguntas antes de realizar una consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizacion de preguntas , respuestas  referidas tanto al funcionammiento del estudio y a realizarse un tatto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con un menu de navegacion y Footer correspondiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artista X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagina Artista X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una pagina del artista seleccionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver trabajos del artista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver una bio del artista y un slider dinámico con las imagenes ,con un menu de navegacion y Footer correspondiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X =nombre del artista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualización de calendario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un calendario  junto al formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seleccionar una fecha, poder ver los eventos relacionados a ella y elegir una fecha para una cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visualizar un almanaque que me permita buscar una fecha deseada, clickear en ella y que despliegue los eventos asociados, un mensaje si no hay eventos y elegir un turno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un formulario para completar con mi datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enviar consultas o pedir un turno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar un formulario con los campos: nombre, telefono/mail y comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ver ubicación del Estudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junto al formulario visualizar un mapa con la ubicación, dias y horarios de atencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora estimada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu navegacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html+css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animacion js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no por ahora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      quienes somos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seccion contacto: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edicion de Fotos artistas, logo y fondos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      bio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      footer</t>
   </si>
   <si>
     <t xml:space="preserve">Faqs</t>
   </si>
   <si>
-    <t xml:space="preserve">Ir a la seccion de preguntas y respuestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hacer click y abrir en una pestaña la pagina de FAQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con un click abrir una nueva pestaña donde cargue la paguina de faqs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posicionarme en la seccion de la pagina donde se encuentra Contactos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acceder a un formulario, un calendario y un mapa de ubicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver un formulario para hcer consultas (nombre, telefono/mail, consulta) y un calendario  para hacer citas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver las redes sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con un clic redireccionarme en una nueva pestaña a la red social elegida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAQS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pagina faqs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizacion de preguntas y respuestas referidas al proceso de hacerse un tatto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artista X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slider de trabajos del artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver una  galeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver las imagenes de los tattos  de forma dinámica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver el slider dinámico con las imagenes y  poder deslizarlas con un clic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home/Estudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slider del estudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver un  y fotos del estudio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver una pequeña descripcion del estudio y algunas imagenes de ellas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home/Artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enlace de artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver mas informacion del artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con un click redireccionarme a la pagina del artista deseado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">las imagenes de los tattos  de forma dinámica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calendario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualización de calendario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visualizar un calendario dentro de la home en la seccion contacto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seleccionar una fecha, poder ver los eventos relacionados a ella y elegir una fecha para una cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visualizar un almanaque que me permita buscar una fecha deseada, clickear en ella y que despliegue los eventos asociados o un mensaje si no hay eventos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asociar evento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asociar  un evento al calendario </t>
-  </si>
-  <si>
-    <t xml:space="preserve">poder asociar el evento al calendario y que se refleje en el calendario del frontend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contar con un flag que asocie el evento al calendario y que se refleje en el calendario de forma que el user web pueda clicjear en la fecha y ver el evento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user mobile</t>
+    <t xml:space="preserve">      menu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      faqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     footer</t>
   </si>
 </sst>
 </file>
@@ -218,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -329,20 +406,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
+      <sz val="10"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -354,8 +420,38 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +512,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -514,7 +616,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,7 +629,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,36 +641,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -649,7 +743,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF4C4C4C"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -664,15 +758,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.01"/>
@@ -709,7 +803,9 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -717,389 +813,298 @@
     <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="61.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="61.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="60.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="7" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="90.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="90.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="105.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="H11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1109,4 +1114,245 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>